--- a/Documentation/TCC_Excel.xlsx
+++ b/Documentation/TCC_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>id_login</t>
   </si>
@@ -231,13 +231,28 @@
   </si>
   <si>
     <t>https://github.com/RedBox-Connection/TCC_app_agenda_pessoal</t>
+  </si>
+  <si>
+    <t>Back-end</t>
+  </si>
+  <si>
+    <t>Front-end</t>
+  </si>
+  <si>
+    <t>Controller , Conversor,Database e Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-end / Banco </t>
+  </si>
+  <si>
+    <t>Inicial/Cadastrar User  Layout, Routes e Client Api</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +272,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -482,31 +504,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -523,12 +528,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -541,9 +540,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -564,16 +560,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,57 +651,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,11 +669,65 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -960,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -972,795 +1022,832 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="49" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="49" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="50"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="51" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="56" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="49" t="s">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="56" t="s">
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="49" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="50"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="51" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="14">
         <v>12345</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="16">
         <v>892401</v>
       </c>
-      <c r="D19" s="28">
+      <c r="D19" s="18">
         <v>0.60416666666666663</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="18">
         <v>0.625</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="14">
         <v>1</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="16">
         <v>12345</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="16">
         <v>1</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G22" s="26"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="13">
         <v>1</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="15">
         <v>44113</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="16">
         <v>1</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="71"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="31" t="s">
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="75"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="71"/>
+      <c r="G28" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="12" t="s">
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="71"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="71"/>
+    </row>
+    <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="71"/>
+      <c r="G29" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+    </row>
+    <row r="30" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+    </row>
+    <row r="31" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="30" t="s">
+      <c r="B31" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+    </row>
+    <row r="32" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="65"/>
+      <c r="B32" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="71"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
+      <c r="N32" s="71"/>
+    </row>
+    <row r="33" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="B33" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="77"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+    </row>
+    <row r="34" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="65"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+    </row>
+    <row r="35" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="B35" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="71"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+    </row>
+    <row r="36" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+    </row>
+    <row r="37" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
+      <c r="B37" s="67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+    </row>
+    <row r="38" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
+  <mergeCells count="31">
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="A27:E27"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="B9:D9"/>
@@ -1770,6 +1857,23 @@
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A23:G23"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>

--- a/Documentation/TCC_Excel.xlsx
+++ b/Documentation/TCC_Excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="86">
   <si>
     <t>id_login</t>
   </si>
@@ -137,30 +137,9 @@
     <t>Atrasados</t>
   </si>
   <si>
-    <t>Configuração do Usuario</t>
-  </si>
-  <si>
-    <t>Not Found</t>
-  </si>
-  <si>
     <t>Brainstorm</t>
   </si>
   <si>
-    <t>Decidimos que como tema do nosso TCC iriamos</t>
-  </si>
-  <si>
-    <t>realizar o projeto da agenda pessoal.</t>
-  </si>
-  <si>
-    <t>Pensamos em fazer um sistema de drag n' drop com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">os cartões de agendamento, sendo assim facilitar </t>
-  </si>
-  <si>
-    <t>a vida do usuario.</t>
-  </si>
-  <si>
     <t>Tarefas</t>
   </si>
   <si>
@@ -246,13 +225,70 @@
   </si>
   <si>
     <t>Inicial/Cadastrar User  Layout, Routes e Client Api</t>
+  </si>
+  <si>
+    <t>OBS: Todos os integrantes do grupo  estão responsaveis pela atalização do TRELLO.</t>
+  </si>
+  <si>
+    <t>Decidimos que como tema do nosso TCC iriamos realizar o projeto da agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pessoal.</t>
+  </si>
+  <si>
+    <t>Pensamos em fazer um sistema de drag n' drop com os cartões da agenda,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sendo assim facilitando a vida do usuario. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iremos também implementar um sistema de times onde você pode </t>
+  </si>
+  <si>
+    <t>compartilhar suas tarefas com seu grupo.</t>
+  </si>
+  <si>
+    <t>Definir nova senha</t>
+  </si>
+  <si>
+    <t>Organizer</t>
+  </si>
+  <si>
+    <t>Criar Organizer</t>
+  </si>
+  <si>
+    <t>Configurações User</t>
+  </si>
+  <si>
+    <t>Agenda Time</t>
+  </si>
+  <si>
+    <t>Feitos Time</t>
+  </si>
+  <si>
+    <t>Atrasados Time</t>
+  </si>
+  <si>
+    <t>Configurações Time</t>
+  </si>
+  <si>
+    <t>Convidar Time</t>
+  </si>
+  <si>
+    <t>NotFound</t>
+  </si>
+  <si>
+    <t>Tela user, Recuperar senha, Menu lateral e Component Layout. Routes, Layout e Api.</t>
+  </si>
+  <si>
+    <t>Iniciar funcionalidade de enviar email para recuperação de senha e cartão do user.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +315,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -504,7 +546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -562,86 +604,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -651,59 +614,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -714,20 +634,130 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1010,288 +1040,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="18.7109375" customWidth="1"/>
+    <col min="1" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="23" t="s">
+      <c r="A1" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="24"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="25" t="s">
+      <c r="A2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
+      <c r="G2" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="27" t="s">
+      <c r="A3" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
+      <c r="G3" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="27" t="s">
+      <c r="A4" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
+      <c r="G4" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="27" t="s">
+      <c r="A5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="71"/>
+      <c r="G5" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="35" t="s">
+      <c r="A6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
+      <c r="G6" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="A7" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
+      <c r="A8" s="40"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
+      <c r="A9" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
+        <v>54</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="76" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="77"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
+      <c r="A11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="79"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="71"/>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1309,13 +1355,13 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="71"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="28"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
@@ -1333,31 +1379,31 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -1377,13 +1423,13 @@
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
@@ -1403,31 +1449,31 @@
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -1449,13 +1495,13 @@
         <v>12</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
@@ -1477,31 +1523,31 @@
         <v>23</v>
       </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -1525,13 +1571,13 @@
       <c r="G24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
@@ -1555,332 +1601,296 @@
       <c r="G25" s="16">
         <v>1</v>
       </c>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="75"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
+      <c r="A27" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="31"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="B28" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="28"/>
+      <c r="G28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+    </row>
+    <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="20" t="s">
+      <c r="F29" s="28"/>
+      <c r="G29" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+    </row>
+    <row r="30" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-    </row>
-    <row r="29" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="61" t="s">
+      <c r="D30" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="28"/>
+      <c r="G30" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="71"/>
-      <c r="G29" s="5" t="s">
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+    </row>
+    <row r="31" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="72"/>
+      <c r="B31" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
-    </row>
-    <row r="30" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-    </row>
-    <row r="31" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="71"/>
+      <c r="C31" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="28"/>
       <c r="G31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+    </row>
+    <row r="32" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+    </row>
+    <row r="33" spans="1:14" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="72"/>
+      <c r="B33" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="33"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+    </row>
+    <row r="34" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+    </row>
+    <row r="35" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-    </row>
-    <row r="32" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="78" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-    </row>
-    <row r="33" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="77"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-    </row>
-    <row r="34" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="81"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-    </row>
-    <row r="35" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-    </row>
-    <row r="36" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-    </row>
-    <row r="37" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-    </row>
-    <row r="38" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="73"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
+  <mergeCells count="19">
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="A23:G23"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1"/>
     <hyperlink ref="B19" r:id="rId2"/>
     <hyperlink ref="C22" r:id="rId3"/>
-    <hyperlink ref="B10" r:id="rId4"/>
-    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B11" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
